--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Data statistics include :</t>
   </si>
@@ -43,18 +43,6 @@
   </si>
   <si>
     <t>MAP values</t>
-  </si>
-  <si>
-    <t>Results for Experiment 1: 
-content using ingredients</t>
-  </si>
-  <si>
-    <t>Results for Experiment 2: 
-content using ingredients and cook method</t>
-  </si>
-  <si>
-    <t>Results for Experiment 3: 
-content using ingredients and cook method and diet label</t>
   </si>
   <si>
     <t>Results for Experiment 5: 
@@ -69,6 +57,77 @@
   </si>
   <si>
     <t>MAP values for 68 k users</t>
+  </si>
+  <si>
+    <t>Results for Experiment 1:  VM
+content using ingredients</t>
+  </si>
+  <si>
+    <t>Results for Experiment 3: LP
+content using ingredients and cook method and diet label</t>
+  </si>
+  <si>
+    <t>Results for Experiment 2: AM-VM
+content using ingredients and cook method</t>
+  </si>
+  <si>
+    <t>Content-based</t>
+  </si>
+  <si>
+    <t>Collaborative Filtering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hybrid </t>
+  </si>
+  <si>
+    <t>Recall at 5</t>
+  </si>
+  <si>
+    <t>Recall at10</t>
+  </si>
+  <si>
+    <t>Recall at 20</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>Precision at 5</t>
+  </si>
+  <si>
+    <t>Precision at10</t>
+  </si>
+  <si>
+    <t>Precision at 20</t>
+  </si>
+  <si>
+    <t>Accuracy at 5</t>
+  </si>
+  <si>
+    <t>Accuracy at10</t>
+  </si>
+  <si>
+    <t>Accuracy at 20</t>
+  </si>
+  <si>
+    <t>CB using ingredients</t>
+  </si>
+  <si>
+    <t>Recall at 10</t>
+  </si>
+  <si>
+    <t>Precision at 10</t>
+  </si>
+  <si>
+    <t>Accuracy at 10</t>
+  </si>
+  <si>
+    <t>CB using ingredients 
+and cook method</t>
+  </si>
+  <si>
+    <t>CB using ingredients, 
+cook method and diet labels</t>
   </si>
 </sst>
 </file>
@@ -432,54 +491,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.77734375" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.137357974216615</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.82010801828001E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.8263398421271202E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.18713727295061</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5.2394307676326898E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5.2560506907655499E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.194521618977408</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.5250336892298101E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5.5416191562143599E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -487,16 +606,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>10</v>
@@ -504,31 +647,115 @@
       <c r="C13" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.14436303391159799</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.194521618977408</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.24602958315770501</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8.0107805535399604E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5.5416191562143599E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3.5591375557168001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.30474929744132601</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.42560977111873699</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.45171087680157801</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.186462112573857</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.13687156629003799</v>
+      </c>
+      <c r="N14" s="1">
+        <v>7.4100756711931101E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.333330239321739</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.55322540640774198</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.63603721008613701</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.201762205867108</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.17415776925469001</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.104027158702187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>10</v>
@@ -536,24 +763,62 @@
       <c r="C18" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7.9879755364361898E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5.5250336892298101E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3.5456618637918498E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.20546283818803701</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.205516395425175</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.20561772349846799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.20602087004595501</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.206670344099078</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.20667201820139999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>10</v>
@@ -562,23 +827,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>10</v>
@@ -587,23 +852,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>10</v>
@@ -612,7 +877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>Data statistics include :</t>
   </si>
@@ -25,50 +25,6 @@
   </si>
   <si>
     <t>_x000F_ Total number of users = 585,700</t>
-  </si>
-  <si>
-    <t>Statistics for All Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recipes </t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>Statistics for All Test</t>
-  </si>
-  <si>
-    <t>Number of Recommendations</t>
-  </si>
-  <si>
-    <t>MAP values</t>
-  </si>
-  <si>
-    <t>Results for Experiment 5: 
-hybrid</t>
-  </si>
-  <si>
-    <t>Results for Experiment 4: 
-collaborative SVD</t>
-  </si>
-  <si>
-    <t>MAP values for 10 k users</t>
-  </si>
-  <si>
-    <t>MAP values for 68 k users</t>
-  </si>
-  <si>
-    <t>Results for Experiment 1:  VM
-content using ingredients</t>
-  </si>
-  <si>
-    <t>Results for Experiment 3: LP
-content using ingredients and cook method and diet label</t>
-  </si>
-  <si>
-    <t>Results for Experiment 2: AM-VM
-content using ingredients and cook method</t>
   </si>
   <si>
     <t>Content-based</t>
@@ -128,15 +84,61 @@
   <si>
     <t>CB using ingredients, 
 cook method and diet labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For users 10 k </t>
+  </si>
+  <si>
+    <t>FOR USERS 20 K</t>
+  </si>
+  <si>
+    <t>lptp</t>
+  </si>
+  <si>
+    <t>amod vm</t>
+  </si>
+  <si>
+    <t>my vm</t>
+  </si>
+  <si>
+    <t># interactions on Train set: 524487</t>
+  </si>
+  <si>
+    <t># interactions on Test set: 131122</t>
+  </si>
+  <si>
+    <t># users: 20000</t>
+  </si>
+  <si>
+    <t># Recipes: 37313</t>
+  </si>
+  <si>
+    <t># of interactions: 655609</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -151,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -174,20 +176,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -491,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I6"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,34 +561,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="H2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1">
         <v>0.137357974216615</v>
@@ -553,14 +615,24 @@
       <c r="I4" s="1">
         <v>3.8263398421271202E-2</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.14436303391159799</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.194521618977408</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.24602958315770501</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>0.18713727295061</v>
@@ -571,16 +643,24 @@
       <c r="I5" s="1">
         <v>5.2560506907655499E-2</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.30474929744132601</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.42560977111873699</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.45171087680157801</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1">
         <v>0.194521618977408</v>
@@ -591,301 +671,451 @@
       <c r="I6" s="1">
         <v>5.5416191562143599E-2</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.333330239321739</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.55322540640774198</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.63603721008613701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="K9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7.9879755364361898E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5.5250336892298101E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3.5456618637918498E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="K10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="L10" s="1">
+        <v>0.20546283818803701</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.205516395425175</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.20561772349846799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="F12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="L11" s="1">
+        <v>0.20602087004595501</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.206670344099078</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.20667201820139999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.14436303391159799</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.194521618977408</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.24602958315770501</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="1">
-        <v>8.0107805535399604E-2</v>
-      </c>
-      <c r="M13" s="1">
-        <v>5.5416191562143599E-2</v>
-      </c>
-      <c r="N13" s="1">
-        <v>3.5591375557168001E-2</v>
+        <v>9</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.30474929744132601</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.42560977111873699</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.45171087680157801</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L14" s="1">
-        <v>0.186462112573857</v>
+        <v>8.0107805535399604E-2</v>
       </c>
       <c r="M14" s="1">
-        <v>0.13687156629003799</v>
+        <v>5.5416191562143599E-2</v>
       </c>
       <c r="N14" s="1">
-        <v>7.4100756711931101E-2</v>
+        <v>3.5591375557168001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.333330239321739</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.55322540640774198</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.63603721008613701</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="L15" s="1">
+        <v>0.186462112573857</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.13687156629003799</v>
+      </c>
+      <c r="N15" s="1">
+        <v>7.4100756711931101E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1">
         <v>0.201762205867108</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M16" s="1">
         <v>0.17415776925469001</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N16" s="1">
         <v>0.104027158702187</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1">
-        <v>7.9879755364361898E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>5.5250336892298101E-2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3.5456618637918498E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="1">
-        <v>0.20546283818803701</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.205516395425175</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.20561772349846799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="1">
-        <v>0.20602087004595501</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.206670344099078</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.20667201820139999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="I21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.8617241170830202E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.4154169012642598E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2.42360649024927E-2</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>8.2525879263200402E-2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.11149459924774401</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.14501192039820801</v>
+      </c>
+      <c r="O22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.10573816402285301</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3.2184731964569099E-2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3.2312733602990099E-2</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.24502941397685901</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.37678543185928898</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.46096769816005301</v>
+      </c>
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.11149459924774401</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3.5216745995189098E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3.5334459286555001E-2</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.256281818490385</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.43370876032922601</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.55445888946369903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="M26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>5.0411996519780899E-2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3.5216745995189098E-2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2.3729464148625801E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.20572188955422399</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.20456758440790301</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.20473255991959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="K29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.20495078219629101</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.20372996375990299</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.20375094288956799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="1">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>5.0483648088438499E-2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>3.5334459286555001E-2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2.3839500486207001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.19741030758994799</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.16699933466400499</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.11861661292799</v>
+      </c>
+    </row>
+    <row r="34" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.203255028404729</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.18396540252827601</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.136176365218281</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H19:K19"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B9:C9"/>
@@ -895,6 +1125,7 @@
     <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
   <si>
     <t>Data statistics include :</t>
   </si>
@@ -89,9 +89,6 @@
     <t xml:space="preserve">For users 10 k </t>
   </si>
   <si>
-    <t>FOR USERS 20 K</t>
-  </si>
-  <si>
     <t>lptp</t>
   </si>
   <si>
@@ -114,6 +111,12 @@
   </si>
   <si>
     <t># of interactions: 655609</t>
+  </si>
+  <si>
+    <t>FOR USERS 20K users  LF - 10k thrld - 0.3 default</t>
+  </si>
+  <si>
+    <t>FOR USERS 20K Users LF - 5k thrld - 0.3 default</t>
   </si>
 </sst>
 </file>
@@ -215,13 +218,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -230,12 +236,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="L18" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +554,7 @@
     <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" customWidth="1"/>
     <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -565,12 +569,12 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -629,8 +633,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
@@ -699,8 +703,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="K9" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,8 +748,8 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -813,8 +817,8 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -825,31 +829,31 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="H19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="H19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
       <c r="L19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
       <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
@@ -876,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="O21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -884,7 +888,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>16</v>
@@ -911,7 +915,7 @@
         <v>0.14501192039820801</v>
       </c>
       <c r="O22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -919,7 +923,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>20</v>
@@ -946,12 +950,12 @@
         <v>0.46096769816005301</v>
       </c>
       <c r="O23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>21</v>
@@ -980,8 +984,8 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -1033,8 +1037,8 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
       <c r="K29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>2.3839500486207001E-2</v>
       </c>
     </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:14" x14ac:dyDescent="0.3">
       <c r="K33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>0.11861661292799</v>
       </c>
     </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:14" x14ac:dyDescent="0.3">
       <c r="K34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1112,10 +1116,235 @@
         <v>0.136176365218281</v>
       </c>
     </row>
+    <row r="38" spans="6:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="H38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="1">
+        <v>7.95332299260509E-2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2.40412223133716E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2.4169401148482299E-2</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" s="1">
+        <v>8.3283662102280498E-2</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.11295566003298101</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.147066260301874</v>
+      </c>
+    </row>
+    <row r="41" spans="6:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.104602388400238</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3.2622590376847102E-2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>3.2709515774403002E-2</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.25424710957171898</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.45834177201528298</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.61370213042468402</v>
+      </c>
+    </row>
+    <row r="42" spans="6:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.11295566003298101</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3.5964777555930902E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3.6108124712025798E-2</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.25572188647715199</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.47960288558883002</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.64848314124053297</v>
+      </c>
+    </row>
+    <row r="44" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="K44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="K45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="1">
+        <v>5.1052065734910099E-2</v>
+      </c>
+      <c r="M45" s="1">
+        <v>3.5964777555930902E-2</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2.42077509855116E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="K46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.20408539394870201</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.205036409690072</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.20552661183517801</v>
+      </c>
+    </row>
+    <row r="47" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="K47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.205513745968361</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.205811796723331</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.204523139222793</v>
+      </c>
+    </row>
+    <row r="49" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L50" s="1">
+        <v>5.1205651973583101E-2</v>
+      </c>
+      <c r="M50" s="1">
+        <v>3.6108124712025798E-2</v>
+      </c>
+      <c r="N50" s="1">
+        <v>2.4310141811293699E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.20320483284697599</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0.19128142118466099</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.14643679926278599</v>
+      </c>
+    </row>
+    <row r="52" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.20545743101418101</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0.19822863871397101</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.15256489018583899</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H38:K38"/>
     <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H19:K19"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B9:C9"/>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="39">
   <si>
     <t>Data statistics include :</t>
   </si>
@@ -117,6 +117,24 @@
   </si>
   <si>
     <t>FOR USERS 20K Users LF - 5k thrld - 0.3 default</t>
+  </si>
+  <si>
+    <t># users: 10000</t>
+  </si>
+  <si>
+    <t># Recipes: 31584</t>
+  </si>
+  <si>
+    <t># of interactions: 325836</t>
+  </si>
+  <si>
+    <t># interactions on Train set: 260668</t>
+  </si>
+  <si>
+    <t># interactions on Test set: 65168</t>
+  </si>
+  <si>
+    <t>FOR USERS tail 10K users  LF - 3k thrld - 0.1 default</t>
   </si>
 </sst>
 </file>
@@ -224,10 +242,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -239,7 +258,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="L18" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F38" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55:K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,12 +587,12 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -633,8 +651,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
@@ -703,8 +721,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="K9" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +766,8 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -817,8 +835,8 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -829,12 +847,12 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="L19" t="s">
         <v>26</v>
       </c>
@@ -852,8 +870,8 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
       <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
@@ -984,8 +1002,8 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -1037,8 +1055,8 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
       <c r="K29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1285,7 +1303,7 @@
         <v>0.204523139222793</v>
       </c>
     </row>
-    <row r="49" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:15" x14ac:dyDescent="0.3">
       <c r="K49" s="1" t="s">
         <v>9</v>
       </c>
@@ -1299,7 +1317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:15" x14ac:dyDescent="0.3">
       <c r="K50" s="1" t="s">
         <v>3</v>
       </c>
@@ -1313,7 +1331,7 @@
         <v>2.4310141811293699E-2</v>
       </c>
     </row>
-    <row r="51" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:15" x14ac:dyDescent="0.3">
       <c r="K51" s="1" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1345,7 @@
         <v>0.14643679926278599</v>
       </c>
     </row>
-    <row r="52" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:15" x14ac:dyDescent="0.3">
       <c r="K52" s="1" t="s">
         <v>5</v>
       </c>
@@ -1341,8 +1359,251 @@
         <v>0.15256489018583899</v>
       </c>
     </row>
+    <row r="55" spans="6:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="H55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="1">
+        <v>8.2049012532686399E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2.55539597866229E-2</v>
+      </c>
+      <c r="I57" s="1">
+        <v>2.5615510874025402E-2</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="1">
+        <v>8.8523262005171799E-2</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.122339719438224</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.158228157763046</v>
+      </c>
+      <c r="O57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="6:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.115613287319281</v>
+      </c>
+      <c r="H58" s="1">
+        <v>3.5247241520228803E-2</v>
+      </c>
+      <c r="I58" s="1">
+        <v>3.5359624029423699E-2</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.22650173719333899</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.334608162365436</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.40997391140758399</v>
+      </c>
+      <c r="O58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="6:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.122339719438224</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3.7844201044119098E-2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>3.80182209028559E-2</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.26059620542273298</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.47872781687030103</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0.63645035017030105</v>
+      </c>
+      <c r="O59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="O60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="K61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="K62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="1">
+        <v>5.23902139420616E-2</v>
+      </c>
+      <c r="M62" s="1">
+        <v>3.7844201044119098E-2</v>
+      </c>
+      <c r="N62" s="1">
+        <v>2.53864264510185E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="K63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0.20375336950216599</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0.20486869706083499</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.20469840293437999</v>
+      </c>
+    </row>
+    <row r="64" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="K64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0.204995393591974</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0.19613061725867501</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0.14869996929061299</v>
+      </c>
+    </row>
+    <row r="66" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L67" s="1">
+        <v>5.2574470263077003E-2</v>
+      </c>
+      <c r="M67" s="1">
+        <v>3.80182209028559E-2</v>
+      </c>
+      <c r="N67" s="1">
+        <v>2.5529736922919401E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.18816664960589599</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.15505169413450701</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0.110415600368512</v>
+      </c>
+    </row>
+    <row r="69" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0.20536390623400499</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0.19753301259084799</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0.15051182311393099</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="H55:K55"/>
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="B29:C29"/>
